--- a/lab_07_room_plan.xlsx
+++ b/lab_07_room_plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/thomas_jorgensen_accenture_com/Documents/Documents/Python/programarcadegames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2DA11C16-3C76-4A58-A3B7-63B97996120D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{436F6C9C-8103-46D1-AC81-EA2B934AC8FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{DDFD4E9F-1BAA-418F-B3BB-9AEF9743C6E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="1" xr2:uid="{DDFD4E9F-1BAA-418F-B3BB-9AEF9743C6E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Simple" sheetId="1" r:id="rId1"/>
+    <sheet name="Advanced" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,39 +26,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>1. Muladhara</t>
-  </si>
-  <si>
-    <t>2. No title</t>
-  </si>
-  <si>
-    <t>3. Svadisthana</t>
-  </si>
-  <si>
-    <t>4. No title</t>
-  </si>
-  <si>
-    <t>5. Manipura</t>
-  </si>
-  <si>
-    <t>6. No title</t>
-  </si>
-  <si>
-    <t>7. Anahata</t>
-  </si>
-  <si>
-    <t>8. No title</t>
-  </si>
-  <si>
-    <t>9. Vishuddha</t>
-  </si>
-  <si>
-    <t>10. Ajna</t>
-  </si>
-  <si>
-    <t>11. Sahasrara</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+  <si>
+    <t>Muladhara</t>
+  </si>
+  <si>
+    <t>No title</t>
+  </si>
+  <si>
+    <t>Sahasrara</t>
+  </si>
+  <si>
+    <t>Ajna</t>
+  </si>
+  <si>
+    <t>Svadisthana</t>
+  </si>
+  <si>
+    <t>Manipura</t>
+  </si>
+  <si>
+    <t>Vishuddha</t>
+  </si>
+  <si>
+    <t>Anahata</t>
+  </si>
+  <si>
+    <t>Hall of Chakras</t>
+  </si>
+  <si>
+    <t>Padahastasana</t>
+  </si>
+  <si>
+    <t>Badrasana</t>
+  </si>
+  <si>
+    <t>Paschimottanasana</t>
+  </si>
+  <si>
+    <t>Virasana</t>
+  </si>
+  <si>
+    <t>Janushirshasana</t>
+  </si>
+  <si>
+    <t>Sukhasana</t>
+  </si>
+  <si>
+    <t>Shalabasana</t>
+  </si>
+  <si>
+    <t>Yoniasana</t>
+  </si>
+  <si>
+    <t>Ardha Chandrasana</t>
+  </si>
+  <si>
+    <t>Uddiyana Bandha</t>
+  </si>
+  <si>
+    <t>Trikonasana</t>
+  </si>
+  <si>
+    <t>Dandasana</t>
+  </si>
+  <si>
+    <t>Nabhiasana</t>
+  </si>
+  <si>
+    <t>Suptavajrasana</t>
+  </si>
+  <si>
+    <t>Bhujangasana</t>
+  </si>
+  <si>
+    <t>Gomukhasana</t>
+  </si>
+  <si>
+    <t>Prarthanasana</t>
+  </si>
+  <si>
+    <t>Bhekasana</t>
+  </si>
+  <si>
+    <t>Yoga Mudra</t>
+  </si>
+  <si>
+    <t>Sarvangasana</t>
+  </si>
+  <si>
+    <t>Ardha Matsyendrasana</t>
+  </si>
+  <si>
+    <t>Setu Bandhasana</t>
+  </si>
+  <si>
+    <t>Chakrasana</t>
+  </si>
+  <si>
+    <t>Vajrasana</t>
+  </si>
+  <si>
+    <t>Halasana</t>
+  </si>
+  <si>
+    <t>Garudasana</t>
+  </si>
+  <si>
+    <t>Karnapidasana</t>
+  </si>
+  <si>
+    <t>Brahmacharyasana</t>
+  </si>
+  <si>
+    <t>Padangustasana</t>
+  </si>
+  <si>
+    <t>Prasarita Padatanasana</t>
+  </si>
+  <si>
+    <t>Shashasana</t>
+  </si>
+  <si>
+    <t>Ardha Shirshasana</t>
+  </si>
+  <si>
+    <t>Shirshasana</t>
   </si>
 </sst>
 </file>
@@ -409,63 +503,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5607EA9D-C909-4E73-B7ED-59647DC9F104}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E47D23A-349D-4895-9B52-C48AD1BF8795}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>75</v>
+      </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
